--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/ALASKA_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/ALASKA_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Coquimatlan</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>El Limon</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Huandacareo</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -960,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -973,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1004,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1035,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -1048,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1061,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1092,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Andres Cholula</t>
@@ -1105,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1136,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -1149,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1180,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1211,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1242,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1273,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -1286,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1317,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -1330,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Villa Garcia</t>
@@ -1343,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
